--- a/数据整理/stocks/A股/科创板/688270-臻镭科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688270-臻镭科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688270-臻镭科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688270-臻镭科技.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,167 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2994</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2016</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0443</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+      <c r="D3" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -830,64 +728,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.55</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688270-臻镭科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688270-臻镭科技.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -515,6 +532,782 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010932</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -722,7 +1515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688270-臻镭科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688270-臻镭科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>1.7</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.55</v>
       </c>
     </row>
@@ -532,6 +549,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4853</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009234</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华优质企业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1307,7 +2178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1515,7 +2386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
